--- a/DOM_Banner/output/dept0713/Frank Brosius_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Frank Brosius_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Endocrinology and Metabolism, Division of Guideline and Rapid Recommendation, Cochrane China Centre, MAGIC China Centre, Chinese Evidence-Based Medicine Centre, West China Hospital, Sichuan University, Chengdu, China; Department of Endocrinology and Metabolism, Division of Guideline and Rapid Recommendation, Cochrane China Centre, MAGIC China Centre, Chinese Evidence-Based Medicine Centre, West China Hospital, Sichuan University, Chengdu, China; Department of Medicine, Lovisenberg Diaconal Hospital, Oslo, Norway; Department of Health Research Methods, Evidence and Impact, McMaster University, ON, Canada; Forschergruppe Diabetes eV at the Helmholtz Centre, Munich-Neuherberg, Germany; Department of Medicine K2, Karolinska Institutet, Stockholm, Sweden; Clinic for Cardiology, Angiology, and Intensive Care Medicine, RWTH Aachen University, University Hospital Aachen, Aachen, Germany; Division of Nephrology, University of Arizona College of Medicine Tucson, Tucson, AZ, USA; Department of Internal Medicine, Division of Nephrology and Hypertension, University of Kansas, Kansas City, MI, USA; Department of Health Research Methods, Evidence and Impact, McMaster University, ON, Canada; Department of Endocrinology and Metabolism, Division of Guideline and Rapid Recommendation, Cochrane China Centre, MAGIC China Centre, Chinese Evidence-Based Medicine Centre, West China Hospital, Sichuan University, Chengdu, China; Department of Orthopedics, Orthopedic Research Institute, West China Hospital, Sichuan University, Chengdu, China; Digestive Disease Research Institute, Shariati Hospital, Tehran University of Medical Sciences, Tehran, Iran; Department of Health Research Methods, Evidence and Impact, McMaster University, ON, Canada; Department of Cardiology, Shandong Provincial Hospital affiliated to Shandong First Medical University, Jinan, China; Department of Health Research Methods, Evidence and Impact, McMaster University, ON, Canada; Department of Health Research Methods, Evidence and Impact, McMaster University, ON, Canada; Evidence-Based Medicine Centre, School of Basic Medical Sciences, Lanzhou University, Lanzhou, China; Department of Health Research Methods, Evidence and Impact, McMaster University, ON, Canada; Department of Emergency Medicine, St Marianna University School of Medicine, Kawasaki, Japan; West China School of Medicine, Sichuan University, Chengdu, China; Department of Endocrinology and Metabolism, Division of Guideline and Rapid Recommendation, Cochrane China Centre, MAGIC China Centre, Chinese Evidence-Based Medicine Centre, West China Hospital, Sichuan University, Chengdu, China; Department of Nephrology, National Clinical Research Centre for Geriatrics, West China Hospital, Sichuan University, Chengdu, China; Center for Evidence-Based and Translational Medicine, Zhongnan Hospital of Wuhan University, Wuhan, China; Evidence-Based Social Science Research Centre, School of Public Health, Lanzhou University, Lanzhou, China; Evidence-Based Nursing Centre, School of Nursing, Lanzhou University, Lanzhou, China; Department of Social Medicine and Health Management, School of Public Health, Lanzhou University, Lanzhou, China; Department of Endocrinology and Metabolism, Chengdu Fifth People’s Hospital, Chengdu, China; Evidence-Based Medicine Centre, Tianjin University of Traditional Chinese Medicine, Tianjin, China; Department of Endocrinology and Metabolism, Division of Guideline and Rapid Recommendation, Cochrane China Centre, MAGIC China Centre, Chinese Evidence-Based Medicine Centre, West China Hospital, Sichuan University, Chengdu, China; Department of Cardiovascular Surgery, West China Hospital, Sichuan University, Chengdu, China; Department of Endocrinology and Metabolism, First People’s Hospital of Shuangliu District, Chengdu, China; Department of Radiology, West China Hospital, Sichuan University, Chengdu, China; Department of Endocrinology and Metabolism, Division of Guideline and Rapid Recommendation, Cochrane China Centre, MAGIC China Centre, Chinese Evidence-Based Medicine Centre, West China Hospital, Sichuan University, Chengdu, China; Evidence-Based Social Science Research Centre, School of Public Health, Lanzhou University, Lanzhou, China; School of Rehabilitation Science, McMaster University, Hamilton, ON, Canada; Forschergruppe Diabetes eV at the Helmholtz Centre, Munich-Neuherberg, Germany; Department of Health Research Methods, Evidence and Impact, McMaster University, ON, Canada; Department of Health Research Methods, Evidence and Impact, McMaster University, ON, Canada; Division of General Internal Medicine, Division of Clinical Epidemiology, University Hospitals of Geneva, Geneva, Switzerland; Department of Endocrinology and Metabolism, Division of Guideline and Rapid Recommendation, Cochrane China Centre, MAGIC China Centre, Chinese Evidence-Based Medicine Centre, West China Hospital, Sichuan University, Chengdu, China; Department of Endocrinology and Metabolism, Division of Guideline and Rapid Recommendation, Cochrane China Centre, MAGIC China Centre, Chinese Evidence-Based Medicine Centre, West China Hospital, Sichuan University, Chengdu, China</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4362693001</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Benefits and harms of drug treatment for type 2 diabetes: systematic review and network meta-analysis of randomised controlled trials</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-04-06</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The BMJ</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>BMJ</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/bmj-2022-074068</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37024129</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/bmj-2022-074068</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4315927833</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>SGLT2 inhibitors mitigate kidney tubular metabolic and mTORC1 perturbations in youth-onset type 2 diabetes</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of Clinical Investigation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>American Society for Clinical Investigation</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1172/jci164486</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36637914</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1172/jci164486</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, USA; Department of Internal Medicine-Nephrology, University of Michigan, Ann Arbor, Michigan, USA; Department of Internal Medicine-Nephrology, University of Michigan, Ann Arbor, Michigan, USA; Department of Computational Medicine and Bioinformatics, University of Michigan, Ann Arbor, Michigan, USA; Department of Pathology, University of Michigan, Ann Arbor, Michigan, USA; Department of Biology, Johns Hopkins University, Baltimore, Maryland, USA; Department of Internal Medicine-Nephrology, University of Michigan, Ann Arbor, Michigan, USA; Department of Pathology, University of Michigan, Ann Arbor, Michigan, USA; Department of Pathology, University of Michigan, Ann Arbor, Michigan, USA; Chronic Kidney Disease Section, National Institute of Diabetes and Digestive and Kidney Diseases, Phoenix, Arizona, USA; Department of Medicine, University of Arizona, Tucson, Arizona, USA; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, USA; Department of Computational Medicine and Bioinformatics, University of Michigan, Ann Arbor, Michigan, USA; Institute of Environmental Health Sciences, Wayne State University, Detroit, Michigan, USA; Department of Pathology, University of Michigan, Ann Arbor, Michigan, USA; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319035189</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>The deacylase sirtuin 5 reduces malonylation in nonmitochondrial metabolic pathways in diabetic kidney disease</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of Biological Chemistry</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jbc.2023.102960</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36736426</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jbc.2023.102960</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine, University of Michigan Medical School, Ann Arbor, Michigan; Department of Internal Medicine, University of Michigan Medical School, Ann Arbor, Michigan; Department of Medicine, University of Arizona, Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4296188764</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Cannabinoid Signaling in the Diabetic Proximal Tubule: Of Mice and Men</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>American Journal of Kidney Diseases</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1053/j.ajkd.2022.09.004</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36126758</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1053/j.ajkd.2022.09.004</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona, Tucson, AZ; Departments of Internal Medicine and Molecular and Integrative Physiology, University of Michigan Medical School, Ann Arbor, MI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4376105661</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Treatment of Nondiabetic Kidney Diseases with Sodium-Glucose Cotransporter-2 Inhibitors</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-05-10</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Clinical Journal of the American Society of Nephrology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.2215/cjn.0000000000000194</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37831467</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.2215/cjn.0000000000000194</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Medicne and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Engineering, University of Arizona, Tucson, Arizona, United States; Medicine- Nephrology, University of Arizona, Tucson, Arizona, United States; Medicine and Biomedical Engieering, University of Arizona, Tucson, Arizona, United States</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380320018</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>RENAL5: ADVANCE Kidney Health: Student, Faculty and University Engagement to Advance the Renal Workforce and Drive Innovation for the Future</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943788.42871.f6</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000943788.42871.f6</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4381376673</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>9-OR: Insulin Resistance (IR) and Kidney Oxidative Metabolism in People with Type 1 Diabetes (T1D)</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-06-20</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Diabetes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>American Diabetes Association</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.2337/db23-9-or</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.2337/db23-9-or</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4381377870</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>319-OR: Effect of Vertical Sleeve Gastrectomy (VSG) on the Kidney Transcriptome of Youth with Type 2 Diabetes (T2D)</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-06-20</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Diabetes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>American Diabetes Association</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.2337/db23-319-or</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.2337/db23-319-or</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1098,80 +1143,85 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Viji Nair, Abhijit S. Naik, F. ALAKWAA, J. Schaub, Tim Vigers, Markus Bitzer, Laura Pyle, Frank C. Brosius, Patricia Ladd, Viral N. Shah, Kalie L. Tommerdahl, Kumar Sharma, IAN DE BOER, Pierre‐Jean Saulnier, Helen C. Looker, Robert G. Nelson, J. Hodgin, Petter Bjornstad</t>
+          <t>Stéphanie Eid, Phillipe D. O’Brien, Katharina H. Kretzler, Dong Gyu Jang, Faye E. Mendelson, John M. Hayes, Andrew Carter, Hongyu Zhang, Subramaniam Pennathur, Frank C. Brosius, Emily J. Koubek, Eva L. Feldman</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4381378192</t>
+          <t>Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, USA; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan, USA; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, USA; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan, USA; Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan, USA; Department of Medicine, University of Arizona, Tucson, Arizona, USA; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>316-OR: ADA Presidents' Select Abstract: Structural Lesions on Kidney Biopsy in Youth-Onset Type 1 Diabetes (T1D) and Type 2 Diabetes (T2D)</t>
+          <t>https://openalex.org/W4385230089</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>Dietary interventions improve diabetic kidney disease, but not peripheral neuropathy, in a &lt;i&gt;db/db&lt;/i&gt; mouse model of type 2 diabetes</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Diabetes</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>American Diabetes Association</t>
+          <t>The FASEB Journal</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2337/db23-316-or</t>
+          <t>Wiley</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1096/fj.202300354r</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2337/db23-316-or</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37490006</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1096/fj.202300354r</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,80 +1230,85 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Stéphanie Eid, Phillipe D. O’Brien, Katharina H. Kretzler, Dong Gyu Jang, Faye E. Mendelson, John M. Hayes, Andrew Carter, Hongyu Zhang, Subramaniam Pennathur, Frank C. Brosius, Emily J. Koubek, Eva L. Feldman</t>
+          <t>Sarah Elzinga, Stéphanie Eid, Brett A. McGregor, Dong Gyu Jang, Lucy M. Hinder, Jacqueline R. Dauch, John M. Hayes, Hongyu Zhang, Kai Guo, Subramaniam Pennathur, Matthias Kretzler, Frank C. Brosius, Emily J. Koubek, Eva L. Feldman, Junguk Hur</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385230089</t>
+          <t>Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Biomedical Sciences, University of North Dakota School of Medicine and Health Sciences, Grand Forks, ND 58202, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, MI 48109, USA.; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Computational Medicine and Bioinformatics, University of Michigan, Ann Arbor, MI 48109, USA.; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Medicine, University of Arizona, Tucson, AZ 85721, USA.; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, MI 48109, USA.; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Biomedical Sciences, University of North Dakota School of Medicine and Health Sciences, Grand Forks, ND 58202, USA.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dietary interventions improve diabetic kidney disease, but not peripheral neuropathy, in a &lt;i&gt;db/db&lt;/i&gt; mouse model of type 2 diabetes</t>
+          <t>https://openalex.org/W4387326556</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>Transcriptomic analysis of diabetic kidney disease and neuropathy in mouse models of type 1 and type 2 diabetes</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>The FASEB Journal</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>Disease Models &amp; Mechanisms</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1096/fj.202300354r</t>
+          <t>The Company of Biologists</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>https://doi.org/10.1242/dmm.050080</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>hybrid</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37490006</t>
-        </is>
-      </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1096/fj.202300354r</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37791586</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1242/dmm.050080</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1262,80 +1317,85 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sarah Elzinga, Stéphanie Eid, Brett A. McGregor, Dong Gyu Jang, Lucy M. Hinder, Jacqueline R. Dauch, John M. Hayes, Hongyu Zhang, Kai Guo, Subramaniam Pennathur, Matthias Kretzler, Frank C. Brosius, Emily J. Koubek, Eva L. Feldman, Junguk Hur</t>
+          <t>Antonio Ceriello, Helena W. Rodbard, Tadej Battelino, Frank C. Brosius, Francesco Cosentino, Jennifer Green, Linong Ji, Monika Kellerer, Susan Koob, Mikhail Kosiborod, Nebojša Lalić, Nikolaus Marx, T. Prashant Nedungadi, Christopher G. Parkin, Lars Rydén, Wayne Huey‐Herng Sheu, Eberhard Standl, Per Olav Vandvik, Oliver Schnell</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387326556</t>
+          <t>IRCCS MultiMedica, Sesto San Giovanni, Italy; Endocrine and Metabolic Consultants, Rockville, USA; University Medical Center Ljubljana, and Faculty of Medicine, University of Ljubljana, Ljubljana, Slovenia; University of Arizona College of Medicine, Tucson, USA; Cardiology Unit, Department of Medicine, Karolinska Institute and Karolinska University Hospital, Stockholm, Sweden; Duke University Medical Center, Duke Clinical Research Institute, Durham, USA; Peking University People’s Hospital, Beijing, China; Marienhospital Stuttgart, Stuttgart, Germany; PCNA National Office, Madison, USA; Saint Luke’s Mid America Heart Institute and University of Missouri-Kansas City, Kansas City, USA; The George Institute for Global Health and University of New South Wales, Sydney, Australia; University Clinical Center of Serbia, University of Belgrade, Belgrade, Serbia; Department of Internal Medicine I, University Hospital Aachen, RWTH Aachen University, Aachen, Germany; American Heart Association, Dallas, USA; CGParkin Communications, Inc., Henderson, USA; Department of Medicine K2, Karolinska Institute, Stockholm, Sweden; Institute of Molecular and Genomic Medicine, National Research Health Institutes, Zhunan, Taiwan; Forschergruppe Diabetes E. V, Munich, Germany; Institute of Health and Society, University of Oslo, Oslo, Norway; Forschergruppe Diabetes E. V, Munich, Germany</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Transcriptomic analysis of diabetic kidney disease and neuropathy in mouse models of type 1 and type 2 diabetes</t>
+          <t>https://openalex.org/W4387617961</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Data from network meta-analyses can inform clinical practice guidelines and decision-making in diabetes management: perspectives of the taskforce of the guideline workshop</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Disease Models &amp; Mechanisms</t>
+          <t>2023-10-13</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>The Company of Biologists</t>
+          <t>Cardiovascular Diabetology</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1242/dmm.050080</t>
+          <t>BioMed Central</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1186/s12933-023-01993-3</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37791586</t>
-        </is>
-      </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1242/dmm.050080</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37833776</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1186/s12933-023-01993-3</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1344,164 +1404,174 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Antonio Ceriello, Helena W. Rodbard, Tadej Battelino, Frank C. Brosius, Francesco Cosentino, Jennifer Green, Linong Ji, Monika Kellerer, Susan Koob, Mikhail Kosiborod, Nebojša Lalić, Nikolaus Marx, T. Prashant Nedungadi, Christopher G. Parkin, Lars Rydén, Wayne Huey‐Herng Sheu, Eberhard Standl, Per Olav Vandvik, Oliver Schnell</t>
+          <t>Frank C. Brosius, Brian D. Blackbourne, William C. Roberts</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387617961</t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Data from network meta-analyses can inform clinical practice guidelines and decision-making in diabetes management: perspectives of the taskforce of the guideline workshop</t>
+          <t>https://openalex.org/W4388107873</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-10-13</t>
+          <t>Death in the Disco</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cardiovascular Diabetology</t>
+          <t>2023-10-30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>BioMed Central</t>
+          <t>CRC Press eBooks</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s12933-023-01993-3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1201/9781003408321-30</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37833776</t>
-        </is>
-      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s12933-023-01993-3</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>https://doi.org/10.1201/9781003408321-30</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Frank C. Brosius, Brian D. Blackbourne, William C. Roberts</t>
+          <t>Viji Nair, Abhijit S. Naik, F. ALAKWAA, J. Schaub, Tim Vigers, Markus Bitzer, Laura Pyle, Frank C. Brosius, Patricia Ladd, Viral N. Shah, Kalie L. Tommerdahl, Kumar Sharma, IAN DE BOER, Pierre‐Jean Saulnier, Helen C. Looker, Robert G. Nelson, J. Hodgin, Petter Bjornstad</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388107873</t>
+          <t>Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Death in the Disco</t>
+          <t>https://openalex.org/W4381378192</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>316-OR: ADA Presidents' Select Abstract: Structural Lesions on Kidney Biopsy in Youth-Onset Type 1 Diabetes (T1D) and Type 2 Diabetes (T2D)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CRC Press eBooks</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Diabetes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>American Diabetes Association</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2337/db23-316-or</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1201/9781003408321-30</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1201/9781003408321-30</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>https://doi.org/10.2337/db23-316-or</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>article</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept0713/Frank Brosius_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Frank Brosius_2023.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -708,47 +708,47 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Abhijit S. Naik, Frank C. Brosius</t>
+          <t>Antonio Ceriello, Helena W. Rodbard, Tadej Battelino, Frank C. Brosius, Francesco Cosentino, Jennifer Green, Linong Ji, Monika Kellerer, Susan Koob, Mikhail Kosiborod, Nebojša Lalić, Nikolaus Marx, T. Prashant Nedungadi, Christopher G. Parkin, Lars Rydén, Wayne Huey‐Herng Sheu, Eberhard Standl, Per Olav Vandvik, Oliver Schnell</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Department of Internal Medicine, University of Michigan Medical School, Ann Arbor, Michigan; Department of Internal Medicine, University of Michigan Medical School, Ann Arbor, Michigan; Department of Medicine, University of Arizona, Tucson, Arizona</t>
+          <t>IRCCS MultiMedica, Sesto San Giovanni, Italy; Endocrine and Metabolic Consultants, Rockville, USA; University Medical Center Ljubljana, and Faculty of Medicine, University of Ljubljana, Ljubljana, Slovenia; University of Arizona College of Medicine, Tucson, USA; Cardiology Unit, Department of Medicine, Karolinska Institute and Karolinska University Hospital, Stockholm, Sweden; Duke University Medical Center, Duke Clinical Research Institute, Durham, USA; Peking University People’s Hospital, Beijing, China; Marienhospital Stuttgart, Stuttgart, Germany; PCNA National Office, Madison, USA; Saint Luke’s Mid America Heart Institute and University of Missouri-Kansas City, Kansas City, USA; The George Institute for Global Health and University of New South Wales, Sydney, Australia; University Clinical Center of Serbia, University of Belgrade, Belgrade, Serbia; Department of Internal Medicine I, University Hospital Aachen, RWTH Aachen University, Aachen, Germany; American Heart Association, Dallas, USA; CGParkin Communications, Inc., Henderson, USA; Department of Medicine K2, Karolinska Institute, Stockholm, Sweden; Institute of Molecular and Genomic Medicine, National Research Health Institutes, Zhunan, Taiwan; Forschergruppe Diabetes E. V, Munich, Germany; Institute of Health and Society, University of Oslo, Oslo, Norway; Forschergruppe Diabetes E. V, Munich, Germany</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4296188764</t>
+          <t>https://openalex.org/W4387617961</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cannabinoid Signaling in the Diabetic Proximal Tubule: Of Mice and Men</t>
+          <t>Data from network meta-analyses can inform clinical practice guidelines and decision-making in diabetes management: perspectives of the taskforce of the guideline workshop</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-10-13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>American Journal of Kidney Diseases</t>
+          <t>Cardiovascular Diabetology</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>BioMed Central</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1053/j.ajkd.2022.09.004</t>
+          <t>https://doi.org/10.1186/s12933-023-01993-3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36126758</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37833776</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1053/j.ajkd.2022.09.004</t>
+          <t>https://doi.org/10.1186/s12933-023-01993-3</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -795,42 +795,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Frank C. Brosius</t>
+          <t>Abhijit S. Naik, Frank C. Brosius</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Department of Medicine, University of Arizona, Tucson, AZ; Departments of Internal Medicine and Molecular and Integrative Physiology, University of Michigan Medical School, Ann Arbor, MI</t>
+          <t>Department of Internal Medicine, University of Michigan Medical School, Ann Arbor, Michigan; Department of Internal Medicine, University of Michigan Medical School, Ann Arbor, Michigan; Department of Medicine, University of Arizona, Tucson, Arizona</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4376105661</t>
+          <t>https://openalex.org/W4296188764</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Treatment of Nondiabetic Kidney Diseases with Sodium-Glucose Cotransporter-2 Inhibitors</t>
+          <t>Cannabinoid Signaling in the Diabetic Proximal Tubule: Of Mice and Men</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-05-10</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Clinical Journal of the American Society of Nephrology</t>
+          <t>American Journal of Kidney Diseases</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2215/cjn.0000000000000194</t>
+          <t>https://doi.org/10.1053/j.ajkd.2022.09.004</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37831467</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36126758</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2215/cjn.0000000000000194</t>
+          <t>https://doi.org/10.1053/j.ajkd.2022.09.004</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -882,32 +882,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Marvin J. Slepian, Ara Arabyan, Frank C. Brosius, Jason A. Wertheim</t>
+          <t>Frank C. Brosius</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Medicne and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Engineering, University of Arizona, Tucson, Arizona, United States; Medicine- Nephrology, University of Arizona, Tucson, Arizona, United States; Medicine and Biomedical Engieering, University of Arizona, Tucson, Arizona, United States</t>
+          <t>Department of Medicine, University of Arizona, Tucson, AZ; Departments of Internal Medicine and Molecular and Integrative Physiology, University of Michigan Medical School, Ann Arbor, MI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380320018</t>
+          <t>https://openalex.org/W4376105661</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RENAL5: ADVANCE Kidney Health: Student, Faculty and University Engagement to Advance the Renal Workforce and Drive Innovation for the Future</t>
+          <t>Treatment of Nondiabetic Kidney Diseases with Sodium-Glucose Cotransporter-2 Inhibitors</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-05-10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ASAIO Journal</t>
+          <t>Clinical Journal of the American Society of Nephrology</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943788.42871.f6</t>
+          <t>https://doi.org/10.2215/cjn.0000000000000194</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37831467</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000943788.42871.f6</t>
+          <t>https://doi.org/10.2215/cjn.0000000000000194</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -969,42 +969,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>George A. Richard, CARISSA BIRZNIEKS, Guanshi Zhang, Lori Driscoll, Kalie L. Tommerdahl, J. Schaub, ABHIJIT NAIK, Vedha R Nair, Alexis MacDonald, Susan Gross, Viral N. Shah, Laura Pyle, Tim Vigers, Janet K. Snell‐Bergeon, IAN DE BOER, DANIËL VAN RAALTE, LU-PING LI, POTTUMARTHI V. PRASAD, Patricia Ladd, Bennett B. Chin, DAVID CHERNEY, P. McCown, F. ALAKWAA, MATTHIAS KRETZLER, Kumar Sharma, Frank C. Brosius, Robert G. Nelson, Kristen J. Nadeau, Petter Bjornstad</t>
+          <t>Marvin J. Slepian, Ara Arabyan, Frank C. Brosius, Jason A. Wertheim</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ</t>
+          <t>Medicne and Biomedical Engineering, University of Arizona, Tucson, Arizona, United States; Engineering, University of Arizona, Tucson, Arizona, United States; Medicine- Nephrology, University of Arizona, Tucson, Arizona, United States; Medicine and Biomedical Engieering, University of Arizona, Tucson, Arizona, United States</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4381376673</t>
+          <t>https://openalex.org/W4380320018</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9-OR: Insulin Resistance (IR) and Kidney Oxidative Metabolism in People with Type 1 Diabetes (T1D)</t>
+          <t>RENAL5: ADVANCE Kidney Health: Student, Faculty and University Engagement to Advance the Renal Workforce and Drive Innovation for the Future</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Diabetes</t>
+          <t>ASAIO Journal</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>American Diabetes Association</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2337/db23-9-or</t>
+          <t>https://doi.org/10.1097/01.mat.0000943788.42871.f6</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2337/db23-9-or</t>
+          <t>https://doi.org/10.1097/01.mat.0000943788.42871.f6</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1056,22 +1056,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Abhijit S. Naik, F. ALAKWAA, J. Schaub, P. McCown, Viji Nair, Sean Eddy, Laura Pyle, Tim Vigers, Megan M. Kelsey, KELLY N.Z. FULLER, Patricia Ladd, Diego Sandoval, Susan J. Gross, PHILIP ZEITLER, Kristen J. Nadeau, Justin R. Ryder, Thomas H. Inge, Jeffrey B. Hodgin, Frank C. Brosius, Robert G. Nelson, Matthias Kretzler, Petter Bjornstad</t>
+          <t>George A. Richard, CARISSA BIRZNIEKS, Guanshi Zhang, Lori Driscoll, Kalie L. Tommerdahl, J. Schaub, ABHIJIT NAIK, Vedha R Nair, Alexis MacDonald, Susan Gross, Viral N. Shah, Laura Pyle, Tim Vigers, Janet K. Snell‐Bergeon, IAN DE BOER, DANIËL VAN RAALTE, LU-PING LI, POTTUMARTHI V. PRASAD, Patricia Ladd, Bennett B. Chin, DAVID CHERNEY, P. McCown, F. ALAKWAA, MATTHIAS KRETZLER, Kumar Sharma, Frank C. Brosius, Robert G. Nelson, Kristen J. Nadeau, Petter Bjornstad</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ</t>
+          <t>Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ; Sherbrooke, QC, Canada, San Antonio, TX, Ann Arbor, MI, San Diego, CA, Aurora, CO, Seattle, WA, Amsterdam, Netherlands, Evanston, IL, Toronto, ON, Canada, Tucson, AZ, Phoenix, AZ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4381377870</t>
+          <t>https://openalex.org/W4381376673</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>319-OR: Effect of Vertical Sleeve Gastrectomy (VSG) on the Kidney Transcriptome of Youth with Type 2 Diabetes (T2D)</t>
+          <t>9-OR: Insulin Resistance (IR) and Kidney Oxidative Metabolism in People with Type 1 Diabetes (T1D)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2337/db23-319-or</t>
+          <t>https://doi.org/10.2337/db23-9-or</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2337/db23-319-or</t>
+          <t>https://doi.org/10.2337/db23-9-or</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1143,57 +1143,57 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Stéphanie Eid, Phillipe D. O’Brien, Katharina H. Kretzler, Dong Gyu Jang, Faye E. Mendelson, John M. Hayes, Andrew Carter, Hongyu Zhang, Subramaniam Pennathur, Frank C. Brosius, Emily J. Koubek, Eva L. Feldman</t>
+          <t>Abhijit S. Naik, F. ALAKWAA, J. Schaub, P. McCown, Viji Nair, Sean Eddy, Laura Pyle, Tim Vigers, Megan M. Kelsey, KELLY N.Z. FULLER, Patricia Ladd, Diego Sandoval, Susan J. Gross, PHILIP ZEITLER, Kristen J. Nadeau, Justin R. Ryder, Thomas H. Inge, Jeffrey B. Hodgin, Frank C. Brosius, Robert G. Nelson, Matthias Kretzler, Petter Bjornstad</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, USA; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan, USA; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, USA; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan, USA; Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan, USA; Department of Medicine, University of Arizona, Tucson, Arizona, USA; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA</t>
+          <t>Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ; Ann Arbor, MI, Aurora, CO, Denver, CO, Chicago, IL, Tucson, AZ, Phoenix, AZ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385230089</t>
+          <t>https://openalex.org/W4381377870</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Dietary interventions improve diabetic kidney disease, but not peripheral neuropathy, in a &lt;i&gt;db/db&lt;/i&gt; mouse model of type 2 diabetes</t>
+          <t>319-OR: Effect of Vertical Sleeve Gastrectomy (VSG) on the Kidney Transcriptome of Youth with Type 2 Diabetes (T2D)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>The FASEB Journal</t>
+          <t>Diabetes</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>American Diabetes Association</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1096/fj.202300354r</t>
+          <t>https://doi.org/10.2337/db23-319-or</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37490006</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1096/fj.202300354r</t>
+          <t>https://doi.org/10.2337/db23-319-or</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1230,57 +1230,57 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sarah Elzinga, Stéphanie Eid, Brett A. McGregor, Dong Gyu Jang, Lucy M. Hinder, Jacqueline R. Dauch, John M. Hayes, Hongyu Zhang, Kai Guo, Subramaniam Pennathur, Matthias Kretzler, Frank C. Brosius, Emily J. Koubek, Eva L. Feldman, Junguk Hur</t>
+          <t>Viji Nair, Abhijit S. Naik, F. ALAKWAA, J. Schaub, Tim Vigers, Markus Bitzer, Laura Pyle, Frank C. Brosius, Patricia Ladd, Viral N. Shah, Kalie L. Tommerdahl, Kumar Sharma, IAN DE BOER, Pierre‐Jean Saulnier, Helen C. Looker, Robert G. Nelson, J. Hodgin, Petter Bjornstad</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Biomedical Sciences, University of North Dakota School of Medicine and Health Sciences, Grand Forks, ND 58202, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, MI 48109, USA.; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Computational Medicine and Bioinformatics, University of Michigan, Ann Arbor, MI 48109, USA.; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Medicine, University of Arizona, Tucson, AZ 85721, USA.; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, MI 48109, USA.; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Biomedical Sciences, University of North Dakota School of Medicine and Health Sciences, Grand Forks, ND 58202, USA.</t>
+          <t>Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387326556</t>
+          <t>https://openalex.org/W4381378192</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Transcriptomic analysis of diabetic kidney disease and neuropathy in mouse models of type 1 and type 2 diabetes</t>
+          <t>316-OR: ADA Presidents' Select Abstract: Structural Lesions on Kidney Biopsy in Youth-Onset Type 1 Diabetes (T1D) and Type 2 Diabetes (T2D)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-06-20</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Disease Models &amp; Mechanisms</t>
+          <t>Diabetes</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>The Company of Biologists</t>
+          <t>American Diabetes Association</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1242/dmm.050080</t>
+          <t>https://doi.org/10.2337/db23-316-or</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1300,12 +1300,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37791586</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1242/dmm.050080</t>
+          <t>https://doi.org/10.2337/db23-316-or</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1317,47 +1317,47 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Antonio Ceriello, Helena W. Rodbard, Tadej Battelino, Frank C. Brosius, Francesco Cosentino, Jennifer Green, Linong Ji, Monika Kellerer, Susan Koob, Mikhail Kosiborod, Nebojša Lalić, Nikolaus Marx, T. Prashant Nedungadi, Christopher G. Parkin, Lars Rydén, Wayne Huey‐Herng Sheu, Eberhard Standl, Per Olav Vandvik, Oliver Schnell</t>
+          <t>Stéphanie Eid, Phillipe D. O’Brien, Katharina H. Kretzler, Dong Gyu Jang, Faye E. Mendelson, John M. Hayes, Andrew Carter, Hongyu Zhang, Subramaniam Pennathur, Frank C. Brosius, Emily J. Koubek, Eva L. Feldman</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IRCCS MultiMedica, Sesto San Giovanni, Italy; Endocrine and Metabolic Consultants, Rockville, USA; University Medical Center Ljubljana, and Faculty of Medicine, University of Ljubljana, Ljubljana, Slovenia; University of Arizona College of Medicine, Tucson, USA; Cardiology Unit, Department of Medicine, Karolinska Institute and Karolinska University Hospital, Stockholm, Sweden; Duke University Medical Center, Duke Clinical Research Institute, Durham, USA; Peking University People’s Hospital, Beijing, China; Marienhospital Stuttgart, Stuttgart, Germany; PCNA National Office, Madison, USA; Saint Luke’s Mid America Heart Institute and University of Missouri-Kansas City, Kansas City, USA; The George Institute for Global Health and University of New South Wales, Sydney, Australia; University Clinical Center of Serbia, University of Belgrade, Belgrade, Serbia; Department of Internal Medicine I, University Hospital Aachen, RWTH Aachen University, Aachen, Germany; American Heart Association, Dallas, USA; CGParkin Communications, Inc., Henderson, USA; Department of Medicine K2, Karolinska Institute, Stockholm, Sweden; Institute of Molecular and Genomic Medicine, National Research Health Institutes, Zhunan, Taiwan; Forschergruppe Diabetes E. V, Munich, Germany; Institute of Health and Society, University of Oslo, Oslo, Norway; Forschergruppe Diabetes E. V, Munich, Germany</t>
+          <t>Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, USA; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan, USA; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, USA; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan, USA; Department of Internal Medicine, University of Michigan, Ann Arbor, Michigan, USA; Department of Medicine, University of Arizona, Tucson, Arizona, USA; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA; Department of Neurology, University of Michigan, Ann Arbor, Michigan, USA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387617961</t>
+          <t>https://openalex.org/W4385230089</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Data from network meta-analyses can inform clinical practice guidelines and decision-making in diabetes management: perspectives of the taskforce of the guideline workshop</t>
+          <t>Dietary interventions improve diabetic kidney disease, but not peripheral neuropathy, in a &lt;i&gt;db/db&lt;/i&gt; mouse model of type 2 diabetes</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-10-13</t>
+          <t>2023-07-25</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cardiovascular Diabetology</t>
+          <t>The FASEB Journal</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>BioMed Central</t>
+          <t>Wiley</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s12933-023-01993-3</t>
+          <t>https://doi.org/10.1096/fj.202300354r</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37833776</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37490006</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s12933-023-01993-3</t>
+          <t>https://doi.org/10.1096/fj.202300354r</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1404,42 +1404,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Frank C. Brosius, Brian D. Blackbourne, William C. Roberts</t>
+          <t>Sarah Elzinga, Stéphanie Eid, Brett A. McGregor, Dong Gyu Jang, Lucy M. Hinder, Jacqueline R. Dauch, John M. Hayes, Hongyu Zhang, Kai Guo, Subramaniam Pennathur, Matthias Kretzler, Frank C. Brosius, Emily J. Koubek, Eva L. Feldman, Junguk Hur</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; </t>
+          <t>Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Biomedical Sciences, University of North Dakota School of Medicine and Health Sciences, Grand Forks, ND 58202, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, MI 48109, USA.; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Computational Medicine and Bioinformatics, University of Michigan, Ann Arbor, MI 48109, USA.; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Medicine, University of Arizona, Tucson, AZ 85721, USA.; Department of Molecular and Integrative Physiology, University of Michigan, Ann Arbor, MI 48109, USA.; Division of Nephrology, Department of Internal Medicine, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Neurology, University of Michigan, Ann Arbor, MI 48109, USA.; Department of Biomedical Sciences, University of North Dakota School of Medicine and Health Sciences, Grand Forks, ND 58202, USA.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388107873</t>
+          <t>https://openalex.org/W4387326556</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Death in the Disco</t>
+          <t>Transcriptomic analysis of diabetic kidney disease and neuropathy in mouse models of type 1 and type 2 diabetes</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CRC Press eBooks</t>
+          <t>Disease Models &amp; Mechanisms</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The Company of Biologists</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781003408321-30</t>
+          <t>https://doi.org/10.1242/dmm.050080</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1474,74 +1474,74 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37791586</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9781003408321-30</t>
+          <t>https://doi.org/10.1242/dmm.050080</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>book-chapter</t>
+          <t>article</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Viji Nair, Abhijit S. Naik, F. ALAKWAA, J. Schaub, Tim Vigers, Markus Bitzer, Laura Pyle, Frank C. Brosius, Patricia Ladd, Viral N. Shah, Kalie L. Tommerdahl, Kumar Sharma, IAN DE BOER, Pierre‐Jean Saulnier, Helen C. Looker, Robert G. Nelson, J. Hodgin, Petter Bjornstad</t>
+          <t>Frank C. Brosius, Brian D. Blackbourne, William C. Roberts</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ; Ann Arbor, MI, Tucson, AZ, Aurora, CO, San Antonio, TX, Seattle, WA, Poitiers, France, Phoenix, AZ</t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4381378192</t>
+          <t>https://openalex.org/W4388107873</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>316-OR: ADA Presidents' Select Abstract: Structural Lesions on Kidney Biopsy in Youth-Onset Type 1 Diabetes (T1D) and Type 2 Diabetes (T2D)</t>
+          <t>Death in the Disco</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-06-20</t>
+          <t>2023-10-30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Diabetes</t>
+          <t>CRC Press eBooks</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>American Diabetes Association</t>
+          <t>Informa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2337/db23-316-or</t>
+          <t>https://doi.org/10.1201/9781003408321-30</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1566,12 +1566,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2337/db23-316-or</t>
+          <t>https://doi.org/10.1201/9781003408321-30</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>book-chapter</t>
         </is>
       </c>
     </row>
